--- a/DASH Model.xlsx
+++ b/DASH Model.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F91B80-B7DC-124B-BA89-2B44038E8CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BB77E-6D8A-B942-B30C-52AF6ECE085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{4EEBC38A-2961-6143-9C28-A03E11C7DBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>FY2022A</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Total Interest &amp; Other Income</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Gross Income</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidated Balance Sheet </t>
   </si>
 </sst>
 </file>
@@ -134,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3D785-A47B-8348-9F66-2BD3E6618CE0}">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="226" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,75 +515,281 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>1368</v>
+      </c>
+      <c r="E4">
+        <v>2338</v>
+      </c>
+      <c r="F4">
+        <v>3588</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <f>D3-D4</f>
+        <v>1518</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:F5" si="0">E3-E4</f>
+        <v>2550</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>957</v>
+      </c>
+      <c r="E7">
+        <v>1619</v>
+      </c>
+      <c r="F7">
+        <v>1682</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>321</v>
+      </c>
+      <c r="E8">
+        <v>430</v>
+      </c>
+      <c r="F8">
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>556</v>
+      </c>
+      <c r="E9">
+        <v>797</v>
+      </c>
+      <c r="F9">
+        <v>1147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="D10">
+        <f>D9+D8+D7</f>
+        <v>1834</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:F10" si="1">E9+E8+E7</f>
+        <v>2846</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3658</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <f>D5-D10</f>
+        <v>-316</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="2">E5-E10</f>
+        <v>-296</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-663</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>156</v>
+      </c>
+      <c r="F14">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <f>D12+D1-D14-D15</f>
+        <v>-436</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:F17" si="3">E12+E1-E14-E15</f>
+        <v>-452</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>-1124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>-32</v>
+      </c>
+      <c r="E20">
+        <v>-14</v>
+      </c>
+      <c r="F20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f>D21+D20+D19</f>
+        <v>-22</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:F22" si="4">E21+E20+E19</f>
+        <v>-11</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D24">
+        <f>D17+D22</f>
+        <v>-458</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:F24" si="5">E17+E22</f>
+        <v>-463</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-1399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="F26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C27">
+        <f>C24-C25-C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>D24-D25-D26</f>
+        <v>-461</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="D27:E27" si="6">E24-E25-E26</f>
+        <v>-468</v>
+      </c>
+      <c r="F27">
+        <f>F24-F25-F26</f>
+        <v>-1365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>20</v>
+      </c>
+      <c r="D29">
+        <v>62390</v>
+      </c>
+      <c r="E29">
+        <v>336847</v>
+      </c>
+      <c r="F29">
+        <v>371413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
